--- a/FB_login_vs_FB_login_for_business.xlsx
+++ b/FB_login_vs_FB_login_for_business.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VO PHUOC SANG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\98_Seminar\facebook_login\facebook-login-for-business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C58F92-7484-47DB-9B60-A3CCC187CE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DFCFA6-9BE6-4975-BE11-43137F15870D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809" activeTab="6" xr2:uid="{51B11A67-C6B7-4E8F-9267-E800907A7583}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809" activeTab="2" xr2:uid="{51B11A67-C6B7-4E8F-9267-E800907A7583}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_app" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>116305</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>160876</xdr:rowOff>
+      <xdr:rowOff>164051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -570,9 +570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>88229</xdr:colOff>
+      <xdr:colOff>85054</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>161048</xdr:rowOff>
+      <xdr:rowOff>164223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -614,9 +614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>88229</xdr:colOff>
+      <xdr:colOff>85054</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>161048</xdr:rowOff>
+      <xdr:rowOff>164223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,7 +660,7 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>112135</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>71401</xdr:rowOff>
+      <xdr:rowOff>68226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -684,50 +684,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12490824" y="16905941"/>
-          <a:ext cx="5371429" cy="7019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>112135</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>71401</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70973AF-87EC-FD86-8244-7E7F0A8242B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657412" y="24548353"/>
           <a:ext cx="5371429" cy="7019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -748,7 +704,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>134547</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>63931</xdr:rowOff>
+      <xdr:rowOff>67106</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -764,7 +720,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -792,7 +748,7 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>112135</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>71401</xdr:rowOff>
+      <xdr:rowOff>68226</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -808,7 +764,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -834,7 +790,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>42778</xdr:colOff>
+      <xdr:colOff>45953</xdr:colOff>
       <xdr:row>170</xdr:row>
       <xdr:rowOff>151081</xdr:rowOff>
     </xdr:to>
@@ -852,7 +808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -878,7 +834,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>636690</xdr:colOff>
+      <xdr:colOff>639865</xdr:colOff>
       <xdr:row>212</xdr:row>
       <xdr:rowOff>16246</xdr:rowOff>
     </xdr:to>
@@ -896,7 +852,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -911,6 +867,241 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112135</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>65051</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2DC3E81-1437-7E02-59B1-9EB6BC00D04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="661147" y="23756471"/>
+          <a:ext cx="5401312" cy="6791755"/>
+          <a:chOff x="661147" y="23756471"/>
+          <a:chExt cx="5401312" cy="6791755"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E70973AF-87EC-FD86-8244-7E7F0A8242B5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="661147" y="23756471"/>
+            <a:ext cx="5401312" cy="6791755"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C599A918-E2BD-6D98-B535-2F44E7408B72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2165910" y="27678529"/>
+            <a:ext cx="1376830" cy="310590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD61A79F-7DF9-4ADF-97B3-F327D4C67F0B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2146673" y="28919207"/>
+            <a:ext cx="1376830" cy="320115"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19132AD-8B35-4275-8DDE-BF725D26CB84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2162735" y="28286822"/>
+            <a:ext cx="1383180" cy="310590"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1152,50 +1343,6 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>649390</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>65552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1A2667-386C-4339-AB45-D7CEC083F5F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="657225" y="228600"/>
-          <a:ext cx="11822215" cy="8980952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1219,7 +1366,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1263,7 +1410,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1295,6 +1442,127 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>649390</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68727</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="グループ化 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0CBB71-6C15-0334-39F5-63B45329B0F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="448235" y="515471"/>
+          <a:ext cx="11888890" cy="8806140"/>
+          <a:chOff x="448235" y="515471"/>
+          <a:chExt cx="11888890" cy="8809315"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="図 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1A2667-386C-4339-AB45-D7CEC083F5F5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="448235" y="515471"/>
+            <a:ext cx="11888890" cy="8809315"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029198AE-DDB2-4944-BC53-5F5A8F9B8673}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1300815" y="3904505"/>
+            <a:ext cx="1575922" cy="990455"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1682,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D758BC2-CCC8-4B46-8012-E11A9AD74794}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
@@ -1696,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EEBA1D-9E2B-4729-B8A5-88CCFDC3F0D0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
@@ -1730,7 +1998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66898787-CC2B-4227-81F7-15C1A470BC61}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
@@ -1744,7 +2012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFC4ED0-65B6-42B5-B943-0391A27A9200}">
   <dimension ref="B2:N67"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -1777,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA78019E-8231-404C-A3EC-19AD211F0296}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
